--- a/data/trans_bre/P1429-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1429-Edad-trans_bre.xlsx
@@ -658,12 +658,12 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1950004081924687</v>
+        <v>0.1952534152523585</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>-2.924915365046775</v>
+        <v>-2.908394037092283</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -678,12 +678,12 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.943904023213028</v>
+        <v>1.884925161845647</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>1.745801806026105</v>
+        <v>1.73193965492194</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.112259716440288</v>
+        <v>-1.042064979593564</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.153926438018174</v>
+        <v>0.1562197379396746</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="inlineStr"/>
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4740344643768243</v>
+        <v>0.4785317354771713</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.965087388737009</v>
+        <v>2.014169667226108</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="inlineStr"/>
@@ -785,7 +785,7 @@
         <v>0.4294120514788876</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.08003737169843161</v>
+        <v>-0.08003737169843153</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.258452139851466</v>
@@ -799,7 +799,7 @@
         <v>3.120187985553602</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2177803839842183</v>
+        <v>-0.2177803839842181</v>
       </c>
     </row>
     <row r="11">
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3531920305653834</v>
+        <v>-0.3686985998078395</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9208951885567285</v>
+        <v>-0.923455268803546</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.226870900878492</v>
+        <v>1.275659160756126</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9513506854507303</v>
+        <v>0.9646654621135098</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.144463437207835</v>
+        <v>1.274815987288738</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3737599476022767</v>
+        <v>0.3951273320714935</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
@@ -871,7 +871,7 @@
         <v>0.7927029119877554</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.24931377844923</v>
+        <v>1.249313778449229</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>6.866532848711694</v>
@@ -883,7 +883,7 @@
         <v>2.301901893571771</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>3.234499874217845</v>
+        <v>3.234499874217844</v>
       </c>
     </row>
     <row r="14">
@@ -894,26 +894,26 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.126235108430111</v>
+        <v>1.1043347707867</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.023102879572003</v>
+        <v>0.907010342715155</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.1821341823296968</v>
+        <v>-0.05271454467701773</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4563558280991726</v>
+        <v>0.4856091802606007</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7016777867539929</v>
+        <v>0.3310021909528181</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.5363155791443502</v>
+        <v>-0.6121664716282578</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1480400773097461</v>
+        <v>0.23214757860133</v>
       </c>
     </row>
     <row r="15">
@@ -924,22 +924,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.262235329048964</v>
+        <v>4.145611112209821</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.756191562142813</v>
+        <v>3.620763039112478</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.838542680424418</v>
+        <v>1.829155451918133</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.11882369777587</v>
+        <v>2.177969826238298</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>17.22349824951355</v>
+        <v>16.77131020836461</v>
       </c>
     </row>
     <row r="16">
@@ -975,7 +975,7 @@
         <v>9.025707064336212</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>6.215572169746018</v>
+        <v>6.21557216974602</v>
       </c>
     </row>
     <row r="17">
@@ -986,26 +986,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.357781563875316</v>
+        <v>3.440830908677842</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.426860450573</v>
+        <v>5.35150547690644</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.248705383161977</v>
+        <v>2.242371981822173</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.895219374491332</v>
+        <v>4.14610183392027</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9505264889758015</v>
+        <v>0.9216257188727366</v>
       </c>
       <c r="H17" s="6" t="inlineStr"/>
       <c r="I17" s="6" t="n">
-        <v>1.403218605459108</v>
+        <v>1.236905299668862</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>2.331253159547287</v>
+        <v>2.592870121973408</v>
       </c>
     </row>
     <row r="18">
@@ -1016,24 +1016,24 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.572802444234336</v>
+        <v>9.688670080128189</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.77006939720414</v>
+        <v>10.84743607417729</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.56279668429232</v>
+        <v>6.487867204287902</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.191177348480942</v>
+        <v>7.412285083345857</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>10.26759848918621</v>
+        <v>9.908252797617289</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>16.85543583923457</v>
+        <v>16.85824790143715</v>
       </c>
     </row>
     <row r="19">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="J19" s="6" t="n">
-        <v>5.558989350591747</v>
+        <v>5.558989350591748</v>
       </c>
     </row>
     <row r="20">
@@ -1082,24 +1082,24 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>5.3893567236536</v>
+        <v>5.10311508565292</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.372409969187107</v>
+        <v>5.937631146646578</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8.754148385135064</v>
+        <v>8.309613818818343</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6.543044252643693</v>
+        <v>6.429279100915375</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1.165239180946229</v>
+        <v>1.010728164773635</v>
       </c>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>2.574711031254393</v>
+        <v>2.517932661737557</v>
       </c>
     </row>
     <row r="21">
@@ -1110,24 +1110,24 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>12.90476612924201</v>
+        <v>13.02425081670155</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>11.95828561837872</v>
+        <v>12.22251227835384</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.34460291639508</v>
+        <v>15.41688808850649</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11.3291024133978</v>
+        <v>11.27691036823109</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>7.722269082151396</v>
+        <v>8.022634454199896</v>
       </c>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>13.66099333800319</v>
+        <v>12.36326913025247</v>
       </c>
     </row>
     <row r="22">
@@ -1151,7 +1151,7 @@
         <v>8.5471730089892</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13.50055146826486</v>
+        <v>13.50055146826485</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>1.857160434673957</v>
@@ -1163,7 +1163,7 @@
         <v>3.415016161979236</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>4.655648792036265</v>
+        <v>4.655648792036264</v>
       </c>
     </row>
     <row r="23">
@@ -1174,28 +1174,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.493155723036083</v>
+        <v>4.115497126714315</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.697564584682985</v>
+        <v>8.895865845491793</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.975160587136069</v>
+        <v>5.019950699450107</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10.68997661033072</v>
+        <v>10.77616217108212</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5753395992354878</v>
+        <v>0.4929999121756831</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1.160056793941266</v>
+        <v>1.275722775361095</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.975911301375005</v>
+        <v>1.04839762040247</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2.312871762534906</v>
+        <v>2.239926459138683</v>
       </c>
     </row>
     <row r="24">
@@ -1206,26 +1206,26 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.72390011838922</v>
+        <v>13.77525145744686</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.12295298518218</v>
+        <v>16.75980287305052</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.85597501451858</v>
+        <v>13.0747152485155</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16.49929677310572</v>
+        <v>16.56845369691926</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>5.002901861004261</v>
+        <v>4.780499045172444</v>
       </c>
       <c r="H24" s="6" t="inlineStr"/>
       <c r="I24" s="6" t="n">
-        <v>9.957642228178374</v>
+        <v>10.14146359860728</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>10.37294389242246</v>
+        <v>10.52190433238371</v>
       </c>
     </row>
     <row r="25">
@@ -1249,7 +1249,7 @@
         <v>3.099701764388445</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3.915209471413301</v>
+        <v>3.915209471413299</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>3.164749854761275</v>
@@ -1261,7 +1261,7 @@
         <v>8.937746284874166</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>4.677595178023969</v>
+        <v>4.677595178023967</v>
       </c>
     </row>
     <row r="26">
@@ -1272,28 +1272,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.485326779581507</v>
+        <v>2.547602437218084</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.179606813704171</v>
+        <v>3.216416960037918</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.469512623597936</v>
+        <v>2.538001419721076</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.275863811062002</v>
+        <v>3.280733195937365</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1.823051344878582</v>
+        <v>1.88178594012663</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>6.630498234057054</v>
+        <v>7.46881800320053</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>4.747546493167026</v>
+        <v>4.812689254884448</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2.747551842849805</v>
+        <v>2.687227510391117</v>
       </c>
     </row>
     <row r="27">
@@ -1304,28 +1304,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.046601026104701</v>
+        <v>4.052304000499627</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.517887695315554</v>
+        <v>4.64884491620016</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.793892267460397</v>
+        <v>3.921483684994705</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.503461567079555</v>
+        <v>4.535077260991478</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5.167320626873993</v>
+        <v>4.999481685988195</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>59.14356745841123</v>
+        <v>62.68166562639213</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>19.09565160986649</v>
+        <v>18.91708646992725</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>7.335864083704617</v>
+        <v>7.332924638621527</v>
       </c>
     </row>
     <row r="28">
